--- a/test1/Roles.xlsx
+++ b/test1/Roles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6900"/>
+    <workbookView windowWidth="18600" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>__default__</t>
   </si>
@@ -22,7 +22,10 @@
     <t>defaultname</t>
   </si>
   <si>
-    <t>defaultmodel</t>
+    <t>Resources/Prefabs/C001</t>
+  </si>
+  <si>
+    <t>Resources/Behaviors/Rookie</t>
   </si>
   <si>
     <t>defaultpt</t>
@@ -40,6 +43,9 @@
     <t>s</t>
   </si>
   <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>__name__</t>
   </si>
   <si>
@@ -55,21 +61,30 @@
     <t>Model</t>
   </si>
   <si>
+    <t>Behavior</t>
+  </si>
+  <si>
     <t>Portrait</t>
   </si>
   <si>
     <t>Picture</t>
   </si>
   <si>
+    <t>MinLevel</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
     <t>Personality</t>
   </si>
   <si>
     <t>Lily</t>
   </si>
   <si>
-    <t>LilySexy</t>
-  </si>
-  <si>
     <t>LilyPorn</t>
   </si>
   <si>
@@ -79,7 +94,7 @@
     <t>Circle</t>
   </si>
   <si>
-    <t>CirSexy</t>
+    <t>Resources/Prefabs/C002</t>
   </si>
   <si>
     <t>CirBdy</t>
@@ -90,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,29 +132,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,7 +170,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,17 +238,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,68 +261,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +475,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,8 +520,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +550,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,56 +575,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,130 +598,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,19 +1057,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6363636363636" defaultRowHeight="14.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="16382" width="15.6363636363636" style="2" customWidth="1"/>
-    <col min="16383" max="16384" width="15.6363636363636" style="2"/>
+    <col min="1" max="4" width="15.6363636363636" style="2" customWidth="1"/>
+    <col min="5" max="6" width="28.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="15.6363636363636" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:16">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1076,71 +1092,107 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="J1" s="3">
+        <v>99</v>
+      </c>
+      <c r="K1" s="3">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3">
+        <v>1</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1148,25 +1200,37 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1174,21 +1238,33 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
         <v>1</v>
       </c>
     </row>

--- a/test1/Roles.xlsx
+++ b/test1/Roles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6630"/>
+    <workbookView windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>__default__</t>
   </si>
@@ -76,6 +76,9 @@
     <t>MaxLevel</t>
   </si>
   <si>
+    <t>Steady</t>
+  </si>
+  <si>
     <t>Radius</t>
   </si>
   <si>
@@ -91,13 +94,34 @@
     <t>LilyBody</t>
   </si>
   <si>
+    <t>ChenXiaoYuan</t>
+  </si>
+  <si>
+    <t>Resources/Prefabs/C002</t>
+  </si>
+  <si>
     <t>Circle</t>
   </si>
   <si>
-    <t>Resources/Prefabs/C002</t>
-  </si>
-  <si>
     <t>CirBdy</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>角色预制体路径</t>
+  </si>
+  <si>
+    <t>行为树路径</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>半身像</t>
   </si>
 </sst>
 </file>
@@ -105,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -131,24 +155,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,22 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,7 +201,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +275,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -207,16 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,51 +294,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +499,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,6 +533,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,11 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,38 +599,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,139 +613,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -807,7 +831,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="E0FFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1057,20 +1081,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6363636363636" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="15.6363636363636" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="4" width="15.6363636363636" style="2" customWidth="1"/>
     <col min="5" max="6" width="28.8181818181818" style="2" customWidth="1"/>
     <col min="7" max="16384" width="15.6363636363636" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1102,12 +1126,14 @@
         <v>99</v>
       </c>
       <c r="K1" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L1" s="3">
         <v>1</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="3">
+        <v>1</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1115,8 +1141,9 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1151,10 +1178,13 @@
         <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1200,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1212,10 +1245,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1224,13 +1257,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1238,22 +1274,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1262,10 +1298,33 @@
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="3:8">
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/test1/Roles.xlsx
+++ b/test1/Roles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>__default__</t>
   </si>
@@ -46,6 +46,9 @@
     <t>f</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>__name__</t>
   </si>
   <si>
@@ -85,6 +88,12 @@
     <t>Personality</t>
   </si>
   <si>
+    <t>Stunts</t>
+  </si>
+  <si>
+    <t>StuntUnlockLevel</t>
+  </si>
+  <si>
     <t>Lily</t>
   </si>
   <si>
@@ -94,6 +103,12 @@
     <t>LilyBody</t>
   </si>
   <si>
+    <t>101:Resources/TimeLines/Dance</t>
+  </si>
+  <si>
+    <t>101:10,102:15</t>
+  </si>
+  <si>
     <t>ChenXiaoYuan</t>
   </si>
   <si>
@@ -122,6 +137,12 @@
   </si>
   <si>
     <t>半身像</t>
+  </si>
+  <si>
+    <t>特技有解锁等级</t>
+  </si>
+  <si>
+    <t>特技唯一性ID</t>
   </si>
 </sst>
 </file>
@@ -155,30 +176,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,13 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -232,36 +238,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,7 +290,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -308,6 +329,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,49 +401,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,121 +497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,32 +520,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,11 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +586,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -599,157 +611,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,6 +782,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1081,17 +1111,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6363636363636" defaultRowHeight="14.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="15.6363636363636" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="4" width="15.6363636363636" style="2" customWidth="1"/>
     <col min="5" max="6" width="28.8181818181818" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="15.6363636363636" style="2" customWidth="1"/>
+    <col min="7" max="13" width="15.6363636363636" style="2" customWidth="1"/>
+    <col min="14" max="14" width="36.6363636363636" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="15.6363636363636" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:21">
@@ -1134,7 +1166,6 @@
       <c r="M1" s="3">
         <v>1</v>
       </c>
-      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1143,7 +1174,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1183,49 +1214,61 @@
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+    <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1233,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1245,10 +1288,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1265,8 +1308,14 @@
       <c r="M4" s="2">
         <v>1</v>
       </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1274,22 +1323,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1305,26 +1354,40 @@
       </c>
       <c r="M5" s="2">
         <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="3:8">
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="8:14">
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
